--- a/ChainSight 1st SIT/run_20250918_111143/summary/full_deployment_plan_report.xlsx
+++ b/ChainSight 1st SIT/run_20250918_111143/summary/full_deployment_plan_report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang.s.37\OneDrive - Procter and Gamble\Documents\GitHub\chainsight\ChainSight 1st SIT\run_20250918_111143\summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone-my.sharepoint.com/personal/zhang_s_37_pg_com/Documents/Documents/GitHub/chainsight/ChainSight 1st SIT/run_20250918_111143/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B48F802-1BA2-4F53-BF9E-C91DFE9F50B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{7B48F802-1BA2-4F53-BF9E-C91DFE9F50B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EBE5C16-B16D-496A-900F-68B3801120EC}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="3075" windowWidth="25185" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2568" yWindow="840" windowWidth="14352" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FullDeploymentPlan" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FullDeploymentPlan!$A$1:$N$801</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -130,12 +143,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -165,12 +184,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,28 +497,28 @@
   <dimension ref="A1:N801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L710" sqref="L1:L1048576"/>
+      <selection activeCell="G9" sqref="G9:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45901</v>
       </c>
@@ -583,7 +603,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45901</v>
       </c>
@@ -624,7 +644,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45901</v>
       </c>
@@ -665,7 +685,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45901</v>
       </c>
@@ -706,7 +726,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45901</v>
       </c>
@@ -747,7 +767,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45901</v>
       </c>
@@ -788,7 +808,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45901</v>
       </c>
@@ -829,7 +849,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45901</v>
       </c>
@@ -870,7 +890,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45901</v>
       </c>
@@ -911,7 +931,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45901</v>
       </c>
@@ -952,7 +972,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45901</v>
       </c>
@@ -993,7 +1013,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45901</v>
       </c>
@@ -1034,7 +1054,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45901</v>
       </c>
@@ -1053,7 +1073,7 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>50</v>
       </c>
       <c r="H14">
@@ -1075,7 +1095,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45901</v>
       </c>
@@ -1116,7 +1136,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45901</v>
       </c>
@@ -1157,7 +1177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45901</v>
       </c>
@@ -1198,7 +1218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45901</v>
       </c>
@@ -1239,7 +1259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45901</v>
       </c>
@@ -1280,7 +1300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45901</v>
       </c>
@@ -1321,7 +1341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45901</v>
       </c>
@@ -1362,7 +1382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45901</v>
       </c>
@@ -1403,7 +1423,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45901</v>
       </c>
@@ -1444,7 +1464,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45901</v>
       </c>
@@ -1485,7 +1505,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45901</v>
       </c>
@@ -1526,7 +1546,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45901</v>
       </c>
@@ -1567,7 +1587,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45901</v>
       </c>
@@ -1608,7 +1628,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45901</v>
       </c>
@@ -1649,7 +1669,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45901</v>
       </c>
@@ -1690,7 +1710,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45901</v>
       </c>
@@ -1731,7 +1751,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -1772,7 +1792,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45901</v>
       </c>
@@ -1813,7 +1833,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45901</v>
       </c>
@@ -1854,7 +1874,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45901</v>
       </c>
@@ -1895,7 +1915,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45901</v>
       </c>
@@ -1936,7 +1956,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45901</v>
       </c>
@@ -1977,7 +1997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45901</v>
       </c>
@@ -2018,7 +2038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45901</v>
       </c>
@@ -2059,7 +2079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45901</v>
       </c>
@@ -2100,7 +2120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45901</v>
       </c>
@@ -2141,7 +2161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45901</v>
       </c>
@@ -2182,7 +2202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45901</v>
       </c>
@@ -2223,7 +2243,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45901</v>
       </c>
@@ -2264,7 +2284,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45901</v>
       </c>
@@ -2305,7 +2325,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45902</v>
       </c>
@@ -2346,7 +2366,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45902</v>
       </c>
@@ -2387,7 +2407,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45902</v>
       </c>
@@ -2428,7 +2448,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45902</v>
       </c>
@@ -2469,7 +2489,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45902</v>
       </c>
@@ -2510,7 +2530,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45902</v>
       </c>
@@ -2551,7 +2571,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45902</v>
       </c>
@@ -2592,7 +2612,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>45902</v>
       </c>
@@ -2633,7 +2653,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>45902</v>
       </c>
@@ -2674,7 +2694,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>45902</v>
       </c>
@@ -2715,7 +2735,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45902</v>
       </c>
@@ -2756,7 +2776,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>45902</v>
       </c>
@@ -2797,7 +2817,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>45902</v>
       </c>
@@ -2838,7 +2858,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>45902</v>
       </c>
@@ -2879,7 +2899,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>45902</v>
       </c>
@@ -2920,7 +2940,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>45902</v>
       </c>
@@ -2961,7 +2981,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>45902</v>
       </c>
@@ -3002,7 +3022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>45902</v>
       </c>
@@ -3043,7 +3063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>45902</v>
       </c>
@@ -3084,7 +3104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>45902</v>
       </c>
@@ -3125,7 +3145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>45902</v>
       </c>
@@ -3166,7 +3186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>45902</v>
       </c>
@@ -3207,7 +3227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>45902</v>
       </c>
@@ -3248,7 +3268,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>45902</v>
       </c>
@@ -3289,7 +3309,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>45902</v>
       </c>
@@ -3330,7 +3350,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>45902</v>
       </c>
@@ -3371,7 +3391,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>45902</v>
       </c>
@@ -3412,7 +3432,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>45902</v>
       </c>
@@ -3453,7 +3473,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>45902</v>
       </c>
@@ -3494,7 +3514,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>45902</v>
       </c>
@@ -3535,7 +3555,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>45902</v>
       </c>
@@ -3576,7 +3596,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>45902</v>
       </c>
@@ -3617,7 +3637,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>45902</v>
       </c>
@@ -3658,7 +3678,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>45902</v>
       </c>
@@ -3699,7 +3719,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>45902</v>
       </c>
@@ -3740,7 +3760,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>45902</v>
       </c>
@@ -3781,7 +3801,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45902</v>
       </c>
@@ -3822,7 +3842,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>45902</v>
       </c>
@@ -3863,7 +3883,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>45902</v>
       </c>
@@ -3904,7 +3924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>45902</v>
       </c>
@@ -3945,7 +3965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>45902</v>
       </c>
@@ -3986,7 +4006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>45902</v>
       </c>
@@ -4027,7 +4047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45902</v>
       </c>
@@ -4068,7 +4088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>45902</v>
       </c>
@@ -4109,7 +4129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>45902</v>
       </c>
@@ -4150,7 +4170,7 @@
         <v>9999273</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>45902</v>
       </c>
@@ -4191,7 +4211,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>45902</v>
       </c>
@@ -4232,7 +4252,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>45903</v>
       </c>
@@ -4273,7 +4293,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>45903</v>
       </c>
@@ -4314,7 +4334,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>45903</v>
       </c>
@@ -4355,7 +4375,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>45903</v>
       </c>
@@ -4396,7 +4416,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>45903</v>
       </c>
@@ -4437,7 +4457,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>45903</v>
       </c>
@@ -4478,7 +4498,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>45903</v>
       </c>
@@ -4519,7 +4539,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>45903</v>
       </c>
@@ -4560,7 +4580,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>45903</v>
       </c>
@@ -4601,7 +4621,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>45903</v>
       </c>
@@ -4642,7 +4662,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>45903</v>
       </c>
@@ -4683,7 +4703,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45903</v>
       </c>
@@ -4724,7 +4744,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45903</v>
       </c>
@@ -4765,7 +4785,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>45903</v>
       </c>
@@ -4806,7 +4826,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>45903</v>
       </c>
@@ -4847,7 +4867,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>45903</v>
       </c>
@@ -4888,7 +4908,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>45903</v>
       </c>
@@ -4929,7 +4949,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>45903</v>
       </c>
@@ -4970,7 +4990,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>45903</v>
       </c>
@@ -5011,7 +5031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>45903</v>
       </c>
@@ -5052,7 +5072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>45903</v>
       </c>
@@ -5093,7 +5113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>45903</v>
       </c>
@@ -5134,7 +5154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>45903</v>
       </c>
@@ -5175,7 +5195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>45903</v>
       </c>
@@ -5216,7 +5236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>45903</v>
       </c>
@@ -5257,7 +5277,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>45903</v>
       </c>
@@ -5298,7 +5318,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>45903</v>
       </c>
@@ -5339,7 +5359,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>45903</v>
       </c>
@@ -5380,7 +5400,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>45903</v>
       </c>
@@ -5421,7 +5441,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>45903</v>
       </c>
@@ -5462,7 +5482,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>45903</v>
       </c>
@@ -5503,7 +5523,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>45903</v>
       </c>
@@ -5544,7 +5564,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>45903</v>
       </c>
@@ -5585,7 +5605,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>45903</v>
       </c>
@@ -5626,7 +5646,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>45903</v>
       </c>
@@ -5667,7 +5687,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>45903</v>
       </c>
@@ -5708,7 +5728,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>45903</v>
       </c>
@@ -5749,7 +5769,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>45903</v>
       </c>
@@ -5790,7 +5810,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>45903</v>
       </c>
@@ -5831,7 +5851,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>45903</v>
       </c>
@@ -5872,7 +5892,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>45903</v>
       </c>
@@ -5913,7 +5933,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>45903</v>
       </c>
@@ -5954,7 +5974,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>45903</v>
       </c>
@@ -5995,7 +6015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>45903</v>
       </c>
@@ -6036,7 +6056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>45903</v>
       </c>
@@ -6077,7 +6097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>45903</v>
       </c>
@@ -6118,7 +6138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>45903</v>
       </c>
@@ -6159,7 +6179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>45903</v>
       </c>
@@ -6200,7 +6220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>45903</v>
       </c>
@@ -6241,7 +6261,7 @@
         <v>9999410</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>45903</v>
       </c>
@@ -6282,7 +6302,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>45903</v>
       </c>
@@ -6323,7 +6343,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>45904</v>
       </c>
@@ -6364,7 +6384,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>45904</v>
       </c>
@@ -6405,7 +6425,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>45904</v>
       </c>
@@ -6446,7 +6466,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>45904</v>
       </c>
@@ -6487,7 +6507,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>45904</v>
       </c>
@@ -6528,7 +6548,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>45904</v>
       </c>
@@ -6569,7 +6589,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>45904</v>
       </c>
@@ -6610,7 +6630,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>45904</v>
       </c>
@@ -6651,7 +6671,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>45904</v>
       </c>
@@ -6692,7 +6712,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>45904</v>
       </c>
@@ -6733,7 +6753,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>45904</v>
       </c>
@@ -6774,7 +6794,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>45904</v>
       </c>
@@ -6815,7 +6835,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>45904</v>
       </c>
@@ -6856,7 +6876,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>45904</v>
       </c>
@@ -6897,7 +6917,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>45904</v>
       </c>
@@ -6938,7 +6958,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>45904</v>
       </c>
@@ -6979,7 +6999,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>45904</v>
       </c>
@@ -7020,7 +7040,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>45904</v>
       </c>
@@ -7061,7 +7081,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>45904</v>
       </c>
@@ -7102,7 +7122,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>45904</v>
       </c>
@@ -7143,7 +7163,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>45904</v>
       </c>
@@ -7184,7 +7204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>45904</v>
       </c>
@@ -7225,7 +7245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>45904</v>
       </c>
@@ -7266,7 +7286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>45904</v>
       </c>
@@ -7307,7 +7327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>45904</v>
       </c>
@@ -7348,7 +7368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>45904</v>
       </c>
@@ -7389,7 +7409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>45904</v>
       </c>
@@ -7430,7 +7450,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>45904</v>
       </c>
@@ -7471,7 +7491,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>45904</v>
       </c>
@@ -7512,7 +7532,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>45904</v>
       </c>
@@ -7553,7 +7573,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>45904</v>
       </c>
@@ -7594,7 +7614,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>45904</v>
       </c>
@@ -7635,7 +7655,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>45904</v>
       </c>
@@ -7676,7 +7696,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>45904</v>
       </c>
@@ -7717,7 +7737,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>45904</v>
       </c>
@@ -7758,7 +7778,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>45904</v>
       </c>
@@ -7799,7 +7819,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>45904</v>
       </c>
@@ -7840,7 +7860,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>45904</v>
       </c>
@@ -7881,7 +7901,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>45904</v>
       </c>
@@ -7922,7 +7942,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>45904</v>
       </c>
@@ -7963,7 +7983,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>45904</v>
       </c>
@@ -8004,7 +8024,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>45904</v>
       </c>
@@ -8045,7 +8065,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>45904</v>
       </c>
@@ -8086,7 +8106,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>45904</v>
       </c>
@@ -8127,7 +8147,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>45904</v>
       </c>
@@ -8168,7 +8188,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>45904</v>
       </c>
@@ -8209,7 +8229,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>45904</v>
       </c>
@@ -8250,7 +8270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>45904</v>
       </c>
@@ -8291,7 +8311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>45904</v>
       </c>
@@ -8332,7 +8352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>45904</v>
       </c>
@@ -8373,7 +8393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>45904</v>
       </c>
@@ -8414,7 +8434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>45904</v>
       </c>
@@ -8455,7 +8475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>45904</v>
       </c>
@@ -8496,7 +8516,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>45904</v>
       </c>
@@ -8537,7 +8557,7 @@
         <v>9999571</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>45904</v>
       </c>
@@ -8578,7 +8598,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>45904</v>
       </c>
@@ -8619,7 +8639,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>45905</v>
       </c>
@@ -8660,7 +8680,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>45905</v>
       </c>
@@ -8701,7 +8721,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>45905</v>
       </c>
@@ -8742,7 +8762,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>45905</v>
       </c>
@@ -8783,7 +8803,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>45905</v>
       </c>
@@ -8824,7 +8844,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>45905</v>
       </c>
@@ -8865,7 +8885,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>45905</v>
       </c>
@@ -8906,7 +8926,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>45905</v>
       </c>
@@ -8947,7 +8967,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>45905</v>
       </c>
@@ -8988,7 +9008,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>45905</v>
       </c>
@@ -9029,7 +9049,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>45905</v>
       </c>
@@ -9070,7 +9090,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>45905</v>
       </c>
@@ -9111,7 +9131,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>45905</v>
       </c>
@@ -9152,7 +9172,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>45905</v>
       </c>
@@ -9193,7 +9213,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>45905</v>
       </c>
@@ -9234,7 +9254,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>45905</v>
       </c>
@@ -9275,7 +9295,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>45905</v>
       </c>
@@ -9316,7 +9336,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>45905</v>
       </c>
@@ -9357,7 +9377,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>45905</v>
       </c>
@@ -9398,7 +9418,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>45905</v>
       </c>
@@ -9439,7 +9459,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>45905</v>
       </c>
@@ -9480,7 +9500,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>45905</v>
       </c>
@@ -9521,7 +9541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>45905</v>
       </c>
@@ -9562,7 +9582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>45905</v>
       </c>
@@ -9603,7 +9623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>45905</v>
       </c>
@@ -9644,7 +9664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>45905</v>
       </c>
@@ -9685,7 +9705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>45905</v>
       </c>
@@ -9726,7 +9746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>45905</v>
       </c>
@@ -9767,7 +9787,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>45905</v>
       </c>
@@ -9808,7 +9828,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>45905</v>
       </c>
@@ -9849,7 +9869,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>45905</v>
       </c>
@@ -9890,7 +9910,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>45905</v>
       </c>
@@ -9931,7 +9951,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>45905</v>
       </c>
@@ -9972,7 +9992,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>45905</v>
       </c>
@@ -10013,7 +10033,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>45905</v>
       </c>
@@ -10054,7 +10074,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>45905</v>
       </c>
@@ -10095,7 +10115,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>45905</v>
       </c>
@@ -10136,7 +10156,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>45905</v>
       </c>
@@ -10177,7 +10197,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>45905</v>
       </c>
@@ -10218,7 +10238,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>45905</v>
       </c>
@@ -10259,7 +10279,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>45905</v>
       </c>
@@ -10300,7 +10320,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>45905</v>
       </c>
@@ -10341,7 +10361,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>45905</v>
       </c>
@@ -10382,7 +10402,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>45905</v>
       </c>
@@ -10423,7 +10443,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>45905</v>
       </c>
@@ -10464,7 +10484,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>45905</v>
       </c>
@@ -10505,7 +10525,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>45905</v>
       </c>
@@ -10546,7 +10566,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>45905</v>
       </c>
@@ -10587,7 +10607,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>45905</v>
       </c>
@@ -10628,7 +10648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>45905</v>
       </c>
@@ -10669,7 +10689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>45905</v>
       </c>
@@ -10710,7 +10730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>45905</v>
       </c>
@@ -10751,7 +10771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>45905</v>
       </c>
@@ -10792,7 +10812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>45905</v>
       </c>
@@ -10833,7 +10853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>45905</v>
       </c>
@@ -10874,7 +10894,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>45905</v>
       </c>
@@ -10915,7 +10935,7 @@
         <v>9999732</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>45905</v>
       </c>
@@ -10956,7 +10976,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>45905</v>
       </c>
@@ -10997,7 +11017,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>45906</v>
       </c>
@@ -11038,7 +11058,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>45906</v>
       </c>
@@ -11079,7 +11099,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>45906</v>
       </c>
@@ -11120,7 +11140,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>45906</v>
       </c>
@@ -11161,7 +11181,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>45906</v>
       </c>
@@ -11202,7 +11222,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>45906</v>
       </c>
@@ -11243,7 +11263,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>45906</v>
       </c>
@@ -11284,7 +11304,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>45906</v>
       </c>
@@ -11325,7 +11345,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>45906</v>
       </c>
@@ -11366,7 +11386,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>45906</v>
       </c>
@@ -11407,7 +11427,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>45906</v>
       </c>
@@ -11448,7 +11468,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>45906</v>
       </c>
@@ -11489,7 +11509,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>45906</v>
       </c>
@@ -11530,7 +11550,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>45906</v>
       </c>
@@ -11571,7 +11591,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>45906</v>
       </c>
@@ -11612,7 +11632,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>45906</v>
       </c>
@@ -11653,7 +11673,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>45906</v>
       </c>
@@ -11694,7 +11714,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>45906</v>
       </c>
@@ -11735,7 +11755,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>45906</v>
       </c>
@@ -11776,7 +11796,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>45906</v>
       </c>
@@ -11817,7 +11837,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>45906</v>
       </c>
@@ -11858,7 +11878,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>45906</v>
       </c>
@@ -11899,7 +11919,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>45906</v>
       </c>
@@ -11940,7 +11960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>45906</v>
       </c>
@@ -11981,7 +12001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>45906</v>
       </c>
@@ -12022,7 +12042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>45906</v>
       </c>
@@ -12063,7 +12083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>45906</v>
       </c>
@@ -12104,7 +12124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>45906</v>
       </c>
@@ -12145,7 +12165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>45906</v>
       </c>
@@ -12186,7 +12206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>45906</v>
       </c>
@@ -12227,7 +12247,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>45906</v>
       </c>
@@ -12268,7 +12288,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>45906</v>
       </c>
@@ -12309,7 +12329,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>45906</v>
       </c>
@@ -12350,7 +12370,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>45906</v>
       </c>
@@ -12391,7 +12411,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>45906</v>
       </c>
@@ -12432,7 +12452,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>45906</v>
       </c>
@@ -12473,7 +12493,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>45906</v>
       </c>
@@ -12514,7 +12534,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>45906</v>
       </c>
@@ -12555,7 +12575,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>45906</v>
       </c>
@@ -12596,7 +12616,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>45906</v>
       </c>
@@ -12637,7 +12657,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>45906</v>
       </c>
@@ -12678,7 +12698,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>45906</v>
       </c>
@@ -12719,7 +12739,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>45906</v>
       </c>
@@ -12760,7 +12780,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>45906</v>
       </c>
@@ -12801,7 +12821,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>45906</v>
       </c>
@@ -12842,7 +12862,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>45906</v>
       </c>
@@ -12883,7 +12903,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>45906</v>
       </c>
@@ -12924,7 +12944,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>45906</v>
       </c>
@@ -12965,7 +12985,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>45906</v>
       </c>
@@ -13006,7 +13026,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>45906</v>
       </c>
@@ -13047,7 +13067,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>45906</v>
       </c>
@@ -13088,7 +13108,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>45906</v>
       </c>
@@ -13129,7 +13149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>45906</v>
       </c>
@@ -13170,7 +13190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>45906</v>
       </c>
@@ -13211,7 +13231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>45906</v>
       </c>
@@ -13252,7 +13272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>45906</v>
       </c>
@@ -13293,7 +13313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>45906</v>
       </c>
@@ -13334,7 +13354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>45906</v>
       </c>
@@ -13375,7 +13395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>45906</v>
       </c>
@@ -13416,7 +13436,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>45906</v>
       </c>
@@ -13457,7 +13477,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>45906</v>
       </c>
@@ -13498,7 +13518,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>45906</v>
       </c>
@@ -13539,7 +13559,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>45906</v>
       </c>
@@ -13580,7 +13600,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>45906</v>
       </c>
@@ -13621,7 +13641,7 @@
         <v>9999893</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>45906</v>
       </c>
@@ -13662,7 +13682,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>45906</v>
       </c>
@@ -13703,7 +13723,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>45907</v>
       </c>
@@ -13744,7 +13764,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>45907</v>
       </c>
@@ -13785,7 +13805,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>45907</v>
       </c>
@@ -13826,7 +13846,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>45907</v>
       </c>
@@ -13867,7 +13887,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>45907</v>
       </c>
@@ -13908,7 +13928,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>45907</v>
       </c>
@@ -13949,7 +13969,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>45907</v>
       </c>
@@ -13990,7 +14010,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>45907</v>
       </c>
@@ -14031,7 +14051,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>45907</v>
       </c>
@@ -14072,7 +14092,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>45907</v>
       </c>
@@ -14113,7 +14133,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>45907</v>
       </c>
@@ -14154,7 +14174,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>45907</v>
       </c>
@@ -14195,7 +14215,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>45907</v>
       </c>
@@ -14236,7 +14256,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>45907</v>
       </c>
@@ -14277,7 +14297,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>45907</v>
       </c>
@@ -14318,7 +14338,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>45907</v>
       </c>
@@ -14359,7 +14379,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>45907</v>
       </c>
@@ -14400,7 +14420,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>45907</v>
       </c>
@@ -14441,7 +14461,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>45907</v>
       </c>
@@ -14482,7 +14502,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>45907</v>
       </c>
@@ -14523,7 +14543,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>45907</v>
       </c>
@@ -14564,7 +14584,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>45907</v>
       </c>
@@ -14605,7 +14625,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>45907</v>
       </c>
@@ -14646,7 +14666,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>45907</v>
       </c>
@@ -14687,7 +14707,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>45907</v>
       </c>
@@ -14728,7 +14748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>45907</v>
       </c>
@@ -14769,7 +14789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>45907</v>
       </c>
@@ -14810,7 +14830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>45907</v>
       </c>
@@ -14851,7 +14871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>45907</v>
       </c>
@@ -14892,7 +14912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>45907</v>
       </c>
@@ -14933,7 +14953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>45907</v>
       </c>
@@ -14974,7 +14994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>45907</v>
       </c>
@@ -15015,7 +15035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>45907</v>
       </c>
@@ -15056,7 +15076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>45907</v>
       </c>
@@ -15097,7 +15117,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>45907</v>
       </c>
@@ -15138,7 +15158,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>45907</v>
       </c>
@@ -15179,7 +15199,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>45907</v>
       </c>
@@ -15220,7 +15240,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>45907</v>
       </c>
@@ -15261,7 +15281,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>45907</v>
       </c>
@@ -15302,7 +15322,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>45907</v>
       </c>
@@ -15343,7 +15363,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>45907</v>
       </c>
@@ -15384,7 +15404,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>45907</v>
       </c>
@@ -15425,7 +15445,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>45907</v>
       </c>
@@ -15466,7 +15486,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>45907</v>
       </c>
@@ -15507,7 +15527,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>45907</v>
       </c>
@@ -15548,7 +15568,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>45907</v>
       </c>
@@ -15589,7 +15609,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>45907</v>
       </c>
@@ -15630,7 +15650,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>45907</v>
       </c>
@@ -15671,7 +15691,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>45907</v>
       </c>
@@ -15712,7 +15732,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>45907</v>
       </c>
@@ -15753,7 +15773,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>45907</v>
       </c>
@@ -15794,7 +15814,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>45907</v>
       </c>
@@ -15835,7 +15855,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>45907</v>
       </c>
@@ -15876,7 +15896,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>45907</v>
       </c>
@@ -15917,7 +15937,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>45907</v>
       </c>
@@ -15958,7 +15978,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>45907</v>
       </c>
@@ -15999,7 +16019,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>45907</v>
       </c>
@@ -16040,7 +16060,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>45907</v>
       </c>
@@ -16081,7 +16101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>45907</v>
       </c>
@@ -16122,7 +16142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>45907</v>
       </c>
@@ -16163,7 +16183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>45907</v>
       </c>
@@ -16204,7 +16224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>45907</v>
       </c>
@@ -16245,7 +16265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>45907</v>
       </c>
@@ -16286,7 +16306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>45907</v>
       </c>
@@ -16327,7 +16347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>45907</v>
       </c>
@@ -16368,7 +16388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>45907</v>
       </c>
@@ -16409,7 +16429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>45907</v>
       </c>
@@ -16450,7 +16470,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>45907</v>
       </c>
@@ -16491,7 +16511,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>45907</v>
       </c>
@@ -16532,7 +16552,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>45907</v>
       </c>
@@ -16573,7 +16593,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>45907</v>
       </c>
@@ -16614,7 +16634,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>45907</v>
       </c>
@@ -16655,7 +16675,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>45907</v>
       </c>
@@ -16696,7 +16716,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>45907</v>
       </c>
@@ -16737,7 +16757,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>45908</v>
       </c>
@@ -16778,7 +16798,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>45908</v>
       </c>
@@ -16819,7 +16839,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>45908</v>
       </c>
@@ -16860,7 +16880,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>45908</v>
       </c>
@@ -16901,7 +16921,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>45908</v>
       </c>
@@ -16942,7 +16962,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>45908</v>
       </c>
@@ -16983,7 +17003,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>45908</v>
       </c>
@@ -17024,7 +17044,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>45908</v>
       </c>
@@ -17065,7 +17085,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>45908</v>
       </c>
@@ -17106,7 +17126,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>45908</v>
       </c>
@@ -17147,7 +17167,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>45908</v>
       </c>
@@ -17188,7 +17208,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>45908</v>
       </c>
@@ -17229,7 +17249,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>45908</v>
       </c>
@@ -17270,7 +17290,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>45908</v>
       </c>
@@ -17311,7 +17331,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>45908</v>
       </c>
@@ -17352,7 +17372,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>45908</v>
       </c>
@@ -17393,7 +17413,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>45908</v>
       </c>
@@ -17434,7 +17454,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>45908</v>
       </c>
@@ -17475,7 +17495,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>45908</v>
       </c>
@@ -17516,7 +17536,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>45908</v>
       </c>
@@ -17557,7 +17577,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>45908</v>
       </c>
@@ -17598,7 +17618,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>45908</v>
       </c>
@@ -17639,7 +17659,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>45908</v>
       </c>
@@ -17680,7 +17700,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>45908</v>
       </c>
@@ -17721,7 +17741,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>45908</v>
       </c>
@@ -17762,7 +17782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>45908</v>
       </c>
@@ -17803,7 +17823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>45908</v>
       </c>
@@ -17844,7 +17864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>45908</v>
       </c>
@@ -17885,7 +17905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>45908</v>
       </c>
@@ -17926,7 +17946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>45908</v>
       </c>
@@ -17967,7 +17987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>45908</v>
       </c>
@@ -18008,7 +18028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>45908</v>
       </c>
@@ -18049,7 +18069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>45908</v>
       </c>
@@ -18090,7 +18110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>45908</v>
       </c>
@@ -18131,7 +18151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>45908</v>
       </c>
@@ -18172,7 +18192,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>45908</v>
       </c>
@@ -18213,7 +18233,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>45908</v>
       </c>
@@ -18254,7 +18274,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>45908</v>
       </c>
@@ -18295,7 +18315,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>45908</v>
       </c>
@@ -18336,7 +18356,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>45908</v>
       </c>
@@ -18377,7 +18397,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>45908</v>
       </c>
@@ -18418,7 +18438,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>45908</v>
       </c>
@@ -18459,7 +18479,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>45908</v>
       </c>
@@ -18500,7 +18520,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>45908</v>
       </c>
@@ -18541,7 +18561,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>45908</v>
       </c>
@@ -18582,7 +18602,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>45908</v>
       </c>
@@ -18623,7 +18643,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>45908</v>
       </c>
@@ -18664,7 +18684,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>45908</v>
       </c>
@@ -18705,7 +18725,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>45908</v>
       </c>
@@ -18746,7 +18766,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>45908</v>
       </c>
@@ -18787,7 +18807,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>45908</v>
       </c>
@@ -18828,7 +18848,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>45908</v>
       </c>
@@ -18869,7 +18889,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>45908</v>
       </c>
@@ -18910,7 +18930,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>45908</v>
       </c>
@@ -18951,7 +18971,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>45908</v>
       </c>
@@ -18992,7 +19012,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>45908</v>
       </c>
@@ -19033,7 +19053,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>45908</v>
       </c>
@@ -19074,7 +19094,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>45908</v>
       </c>
@@ -19115,7 +19135,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>45908</v>
       </c>
@@ -19156,7 +19176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>45908</v>
       </c>
@@ -19197,7 +19217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>45908</v>
       </c>
@@ -19238,7 +19258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>45908</v>
       </c>
@@ -19279,7 +19299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>45908</v>
       </c>
@@ -19320,7 +19340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>45908</v>
       </c>
@@ -19361,7 +19381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>45908</v>
       </c>
@@ -19402,7 +19422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>45908</v>
       </c>
@@ -19443,7 +19463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>45908</v>
       </c>
@@ -19484,7 +19504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>45908</v>
       </c>
@@ -19525,7 +19545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>45908</v>
       </c>
@@ -19566,7 +19586,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>45908</v>
       </c>
@@ -19607,7 +19627,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>45908</v>
       </c>
@@ -19648,7 +19668,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>45908</v>
       </c>
@@ -19689,7 +19709,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>45908</v>
       </c>
@@ -19730,7 +19750,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>45908</v>
       </c>
@@ -19771,7 +19791,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>45908</v>
       </c>
@@ -19812,7 +19832,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <v>45908</v>
       </c>
@@ -19853,7 +19873,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>45909</v>
       </c>
@@ -19894,7 +19914,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>45909</v>
       </c>
@@ -19935,7 +19955,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>45909</v>
       </c>
@@ -19976,7 +19996,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>45909</v>
       </c>
@@ -20017,7 +20037,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>45909</v>
       </c>
@@ -20058,7 +20078,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>45909</v>
       </c>
@@ -20099,7 +20119,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <v>45909</v>
       </c>
@@ -20140,7 +20160,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="2">
         <v>45909</v>
       </c>
@@ -20181,7 +20201,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>45909</v>
       </c>
@@ -20222,7 +20242,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>45909</v>
       </c>
@@ -20263,7 +20283,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <v>45909</v>
       </c>
@@ -20304,7 +20324,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>45909</v>
       </c>
@@ -20345,7 +20365,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
         <v>45909</v>
       </c>
@@ -20386,7 +20406,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <v>45909</v>
       </c>
@@ -20427,7 +20447,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>45909</v>
       </c>
@@ -20468,7 +20488,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
         <v>45909</v>
       </c>
@@ -20509,7 +20529,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <v>45909</v>
       </c>
@@ -20550,7 +20570,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <v>45909</v>
       </c>
@@ -20591,7 +20611,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
         <v>45909</v>
       </c>
@@ -20632,7 +20652,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <v>45909</v>
       </c>
@@ -20673,7 +20693,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <v>45909</v>
       </c>
@@ -20714,7 +20734,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>45909</v>
       </c>
@@ -20755,7 +20775,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="2">
         <v>45909</v>
       </c>
@@ -20796,7 +20816,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="496" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="2">
         <v>45909</v>
       </c>
@@ -20837,7 +20857,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
         <v>45909</v>
       </c>
@@ -20878,7 +20898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="2">
         <v>45909</v>
       </c>
@@ -20919,7 +20939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <v>45909</v>
       </c>
@@ -20960,7 +20980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="2">
         <v>45909</v>
       </c>
@@ -21001,7 +21021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
         <v>45909</v>
       </c>
@@ -21042,7 +21062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="2">
         <v>45909</v>
       </c>
@@ -21083,7 +21103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="2">
         <v>45909</v>
       </c>
@@ -21124,7 +21144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="2">
         <v>45909</v>
       </c>
@@ -21165,7 +21185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <v>45909</v>
       </c>
@@ -21206,7 +21226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="2">
         <v>45909</v>
       </c>
@@ -21247,7 +21267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
         <v>45909</v>
       </c>
@@ -21288,7 +21308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="2">
         <v>45909</v>
       </c>
@@ -21329,7 +21349,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="2">
         <v>45909</v>
       </c>
@@ -21370,7 +21390,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="2">
         <v>45909</v>
       </c>
@@ -21411,7 +21431,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2">
         <v>45909</v>
       </c>
@@ -21452,7 +21472,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="512" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
         <v>45909</v>
       </c>
@@ -21493,7 +21513,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="513" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="2">
         <v>45909</v>
       </c>
@@ -21534,7 +21554,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="2">
         <v>45909</v>
       </c>
@@ -21575,7 +21595,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="515" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2">
         <v>45909</v>
       </c>
@@ -21616,7 +21636,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="516" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="2">
         <v>45909</v>
       </c>
@@ -21657,7 +21677,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="2">
         <v>45909</v>
       </c>
@@ -21698,7 +21718,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
         <v>45909</v>
       </c>
@@ -21739,7 +21759,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="2">
         <v>45909</v>
       </c>
@@ -21780,7 +21800,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <v>45909</v>
       </c>
@@ -21821,7 +21841,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2">
         <v>45909</v>
       </c>
@@ -21862,7 +21882,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
         <v>45909</v>
       </c>
@@ -21903,7 +21923,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="523" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="2">
         <v>45909</v>
       </c>
@@ -21944,7 +21964,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="524" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="2">
         <v>45909</v>
       </c>
@@ -21985,7 +22005,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="525" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="2">
         <v>45909</v>
       </c>
@@ -22026,7 +22046,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="526" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="2">
         <v>45909</v>
       </c>
@@ -22067,7 +22087,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="527" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2">
         <v>45909</v>
       </c>
@@ -22108,7 +22128,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="528" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
         <v>45909</v>
       </c>
@@ -22149,7 +22169,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2">
         <v>45909</v>
       </c>
@@ -22190,7 +22210,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="530" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2">
         <v>45909</v>
       </c>
@@ -22231,7 +22251,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="531" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2">
         <v>45909</v>
       </c>
@@ -22272,7 +22292,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2">
         <v>45909</v>
       </c>
@@ -22313,7 +22333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="533" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="2">
         <v>45909</v>
       </c>
@@ -22354,7 +22374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="2">
         <v>45909</v>
       </c>
@@ -22395,7 +22415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="535" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2">
         <v>45909</v>
       </c>
@@ -22436,7 +22456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="2">
         <v>45909</v>
       </c>
@@ -22477,7 +22497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="537" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2">
         <v>45909</v>
       </c>
@@ -22518,7 +22538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="2">
         <v>45909</v>
       </c>
@@ -22559,7 +22579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="539" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="2">
         <v>45909</v>
       </c>
@@ -22600,7 +22620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="540" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="2">
         <v>45909</v>
       </c>
@@ -22641,7 +22661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="541" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2">
         <v>45909</v>
       </c>
@@ -22682,7 +22702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
         <v>45909</v>
       </c>
@@ -22723,7 +22743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2">
         <v>45909</v>
       </c>
@@ -22764,7 +22784,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
         <v>45909</v>
       </c>
@@ -22805,7 +22825,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="2">
         <v>45909</v>
       </c>
@@ -22846,7 +22866,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <v>45909</v>
       </c>
@@ -22887,7 +22907,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="2">
         <v>45909</v>
       </c>
@@ -22928,7 +22948,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="2">
         <v>45909</v>
       </c>
@@ -22969,7 +22989,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2">
         <v>45909</v>
       </c>
@@ -23010,7 +23030,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2">
         <v>45909</v>
       </c>
@@ -23051,7 +23071,7 @@
         <v>9999961</v>
       </c>
     </row>
-    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2">
         <v>45910</v>
       </c>
@@ -23092,7 +23112,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
         <v>45910</v>
       </c>
@@ -23133,7 +23153,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="2">
         <v>45910</v>
       </c>
@@ -23174,7 +23194,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="2">
         <v>45910</v>
       </c>
@@ -23215,7 +23235,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="2">
         <v>45910</v>
       </c>
@@ -23256,7 +23276,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="2">
         <v>45910</v>
       </c>
@@ -23297,7 +23317,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="2">
         <v>45910</v>
       </c>
@@ -23338,7 +23358,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="2">
         <v>45910</v>
       </c>
@@ -23379,7 +23399,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="2">
         <v>45910</v>
       </c>
@@ -23420,7 +23440,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="2">
         <v>45910</v>
       </c>
@@ -23461,7 +23481,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="561" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="2">
         <v>45910</v>
       </c>
@@ -23502,7 +23522,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="562" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="2">
         <v>45910</v>
       </c>
@@ -23543,7 +23563,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="563" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="2">
         <v>45910</v>
       </c>
@@ -23584,7 +23604,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="564" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="2">
         <v>45910</v>
       </c>
@@ -23625,7 +23645,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="565" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="2">
         <v>45910</v>
       </c>
@@ -23666,7 +23686,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="566" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="2">
         <v>45910</v>
       </c>
@@ -23707,7 +23727,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="567" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="2">
         <v>45910</v>
       </c>
@@ -23748,7 +23768,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="568" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="2">
         <v>45910</v>
       </c>
@@ -23789,7 +23809,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="569" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="2">
         <v>45910</v>
       </c>
@@ -23830,7 +23850,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="570" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="2">
         <v>45910</v>
       </c>
@@ -23871,7 +23891,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="571" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="2">
         <v>45910</v>
       </c>
@@ -23912,7 +23932,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="572" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="2">
         <v>45910</v>
       </c>
@@ -23953,7 +23973,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="573" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="2">
         <v>45910</v>
       </c>
@@ -23994,7 +24014,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="574" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="2">
         <v>45910</v>
       </c>
@@ -24035,7 +24055,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="575" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="2">
         <v>45910</v>
       </c>
@@ -24076,7 +24096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="576" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="2">
         <v>45910</v>
       </c>
@@ -24117,7 +24137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="577" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="2">
         <v>45910</v>
       </c>
@@ -24158,7 +24178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="578" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="2">
         <v>45910</v>
       </c>
@@ -24199,7 +24219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="579" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="2">
         <v>45910</v>
       </c>
@@ -24240,7 +24260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="580" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="2">
         <v>45910</v>
       </c>
@@ -24281,7 +24301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="581" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="2">
         <v>45910</v>
       </c>
@@ -24322,7 +24342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="582" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="2">
         <v>45910</v>
       </c>
@@ -24363,7 +24383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="583" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="2">
         <v>45910</v>
       </c>
@@ -24404,7 +24424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="584" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="2">
         <v>45910</v>
       </c>
@@ -24445,7 +24465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="585" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="2">
         <v>45910</v>
       </c>
@@ -24486,7 +24506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="586" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="2">
         <v>45910</v>
       </c>
@@ -24527,7 +24547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="587" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="2">
         <v>45910</v>
       </c>
@@ -24568,7 +24588,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="588" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="2">
         <v>45910</v>
       </c>
@@ -24609,7 +24629,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="589" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="2">
         <v>45910</v>
       </c>
@@ -24650,7 +24670,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="590" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="2">
         <v>45910</v>
       </c>
@@ -24691,7 +24711,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="591" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="2">
         <v>45910</v>
       </c>
@@ -24732,7 +24752,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="592" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="2">
         <v>45910</v>
       </c>
@@ -24773,7 +24793,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="593" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="2">
         <v>45910</v>
       </c>
@@ -24814,7 +24834,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="594" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="2">
         <v>45910</v>
       </c>
@@ -24855,7 +24875,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="595" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="2">
         <v>45910</v>
       </c>
@@ -24896,7 +24916,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="596" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="2">
         <v>45910</v>
       </c>
@@ -24937,7 +24957,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="597" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2">
         <v>45910</v>
       </c>
@@ -24978,7 +24998,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="598" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="2">
         <v>45910</v>
       </c>
@@ -25019,7 +25039,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="599" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="2">
         <v>45910</v>
       </c>
@@ -25060,7 +25080,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="600" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="2">
         <v>45910</v>
       </c>
@@ -25101,7 +25121,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="601" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="2">
         <v>45910</v>
       </c>
@@ -25142,7 +25162,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="602" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="2">
         <v>45910</v>
       </c>
@@ -25183,7 +25203,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="603" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="2">
         <v>45910</v>
       </c>
@@ -25224,7 +25244,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="604" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="2">
         <v>45910</v>
       </c>
@@ -25265,7 +25285,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="605" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="2">
         <v>45910</v>
       </c>
@@ -25306,7 +25326,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="606" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="2">
         <v>45910</v>
       </c>
@@ -25347,7 +25367,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="607" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="2">
         <v>45910</v>
       </c>
@@ -25388,7 +25408,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="608" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="2">
         <v>45910</v>
       </c>
@@ -25429,7 +25449,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="609" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="2">
         <v>45910</v>
       </c>
@@ -25470,7 +25490,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="610" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="2">
         <v>45910</v>
       </c>
@@ -25511,7 +25531,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="611" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="2">
         <v>45910</v>
       </c>
@@ -25552,7 +25572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="612" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="2">
         <v>45910</v>
       </c>
@@ -25593,7 +25613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="613" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="2">
         <v>45910</v>
       </c>
@@ -25634,7 +25654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="614" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="2">
         <v>45910</v>
       </c>
@@ -25675,7 +25695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="615" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="2">
         <v>45910</v>
       </c>
@@ -25716,7 +25736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="616" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="2">
         <v>45910</v>
       </c>
@@ -25757,7 +25777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="617" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="2">
         <v>45910</v>
       </c>
@@ -25798,7 +25818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="618" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="2">
         <v>45910</v>
       </c>
@@ -25839,7 +25859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="619" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" s="2">
         <v>45910</v>
       </c>
@@ -25880,7 +25900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="620" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="2">
         <v>45910</v>
       </c>
@@ -25921,7 +25941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="621" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="2">
         <v>45910</v>
       </c>
@@ -25962,7 +25982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="622" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="2">
         <v>45910</v>
       </c>
@@ -26003,7 +26023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="2">
         <v>45910</v>
       </c>
@@ -26044,7 +26064,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="2">
         <v>45910</v>
       </c>
@@ -26085,7 +26105,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="2">
         <v>45910</v>
       </c>
@@ -26126,7 +26146,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="2">
         <v>45910</v>
       </c>
@@ -26167,7 +26187,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="2">
         <v>45910</v>
       </c>
@@ -26208,7 +26228,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="2">
         <v>45910</v>
       </c>
@@ -26249,7 +26269,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="2">
         <v>45910</v>
       </c>
@@ -26290,7 +26310,7 @@
         <v>9999923</v>
       </c>
     </row>
-    <row r="630" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="2">
         <v>45911</v>
       </c>
@@ -26331,7 +26351,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="631" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="2">
         <v>45911</v>
       </c>
@@ -26372,7 +26392,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="632" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="2">
         <v>45911</v>
       </c>
@@ -26413,7 +26433,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="633" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="2">
         <v>45911</v>
       </c>
@@ -26454,7 +26474,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="634" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="2">
         <v>45911</v>
       </c>
@@ -26495,7 +26515,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="635" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="2">
         <v>45911</v>
       </c>
@@ -26536,7 +26556,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="636" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="2">
         <v>45911</v>
       </c>
@@ -26577,7 +26597,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="637" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="2">
         <v>45911</v>
       </c>
@@ -26618,7 +26638,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="638" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="2">
         <v>45911</v>
       </c>
@@ -26659,7 +26679,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="639" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="2">
         <v>45911</v>
       </c>
@@ -26700,7 +26720,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="640" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="2">
         <v>45911</v>
       </c>
@@ -26741,7 +26761,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="641" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="2">
         <v>45911</v>
       </c>
@@ -26782,7 +26802,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="642" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="2">
         <v>45911</v>
       </c>
@@ -26823,7 +26843,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="643" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" s="2">
         <v>45911</v>
       </c>
@@ -26864,7 +26884,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="644" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="2">
         <v>45911</v>
       </c>
@@ -26905,7 +26925,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="645" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" s="2">
         <v>45911</v>
       </c>
@@ -26946,7 +26966,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="646" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="2">
         <v>45911</v>
       </c>
@@ -26987,7 +27007,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="647" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="2">
         <v>45911</v>
       </c>
@@ -27028,7 +27048,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="648" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="2">
         <v>45911</v>
       </c>
@@ -27069,7 +27089,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="649" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="2">
         <v>45911</v>
       </c>
@@ -27110,7 +27130,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="650" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="2">
         <v>45911</v>
       </c>
@@ -27151,7 +27171,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="651" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="2">
         <v>45911</v>
       </c>
@@ -27192,7 +27212,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="652" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="2">
         <v>45911</v>
       </c>
@@ -27233,7 +27253,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="653" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="2">
         <v>45911</v>
       </c>
@@ -27274,7 +27294,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="654" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="2">
         <v>45911</v>
       </c>
@@ -27315,7 +27335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="655" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="2">
         <v>45911</v>
       </c>
@@ -27356,7 +27376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="656" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="2">
         <v>45911</v>
       </c>
@@ -27397,7 +27417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="657" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" s="2">
         <v>45911</v>
       </c>
@@ -27438,7 +27458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="658" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="2">
         <v>45911</v>
       </c>
@@ -27479,7 +27499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="659" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" s="2">
         <v>45911</v>
       </c>
@@ -27520,7 +27540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="660" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" s="2">
         <v>45911</v>
       </c>
@@ -27561,7 +27581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="661" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" s="2">
         <v>45911</v>
       </c>
@@ -27602,7 +27622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="662" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="2">
         <v>45911</v>
       </c>
@@ -27643,7 +27663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="663" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" s="2">
         <v>45911</v>
       </c>
@@ -27684,7 +27704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="664" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="2">
         <v>45911</v>
       </c>
@@ -27725,7 +27745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="665" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" s="2">
         <v>45911</v>
       </c>
@@ -27766,7 +27786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="666" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="2">
         <v>45911</v>
       </c>
@@ -27807,7 +27827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="667" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" s="2">
         <v>45911</v>
       </c>
@@ -27848,7 +27868,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="668" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="2">
         <v>45911</v>
       </c>
@@ -27889,7 +27909,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="669" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" s="2">
         <v>45911</v>
       </c>
@@ -27930,7 +27950,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="670" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" s="2">
         <v>45911</v>
       </c>
@@ -27971,7 +27991,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="671" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" s="2">
         <v>45911</v>
       </c>
@@ -28012,7 +28032,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="672" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" s="2">
         <v>45911</v>
       </c>
@@ -28053,7 +28073,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="673" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="2">
         <v>45911</v>
       </c>
@@ -28094,7 +28114,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="674" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="2">
         <v>45911</v>
       </c>
@@ -28135,7 +28155,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="675" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="2">
         <v>45911</v>
       </c>
@@ -28176,7 +28196,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="676" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="2">
         <v>45911</v>
       </c>
@@ -28217,7 +28237,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="677" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="2">
         <v>45911</v>
       </c>
@@ -28258,7 +28278,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="678" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="2">
         <v>45911</v>
       </c>
@@ -28299,7 +28319,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="679" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="2">
         <v>45911</v>
       </c>
@@ -28340,7 +28360,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="680" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" s="2">
         <v>45911</v>
       </c>
@@ -28381,7 +28401,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="681" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" s="2">
         <v>45911</v>
       </c>
@@ -28422,7 +28442,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="682" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" s="2">
         <v>45911</v>
       </c>
@@ -28463,7 +28483,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="683" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" s="2">
         <v>45911</v>
       </c>
@@ -28504,7 +28524,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="684" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" s="2">
         <v>45911</v>
       </c>
@@ -28545,7 +28565,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="685" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" s="2">
         <v>45911</v>
       </c>
@@ -28586,7 +28606,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="686" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" s="2">
         <v>45911</v>
       </c>
@@ -28627,7 +28647,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="687" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" s="2">
         <v>45911</v>
       </c>
@@ -28668,7 +28688,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="688" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" s="2">
         <v>45911</v>
       </c>
@@ -28709,7 +28729,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="689" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" s="2">
         <v>45911</v>
       </c>
@@ -28750,7 +28770,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="690" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" s="2">
         <v>45911</v>
       </c>
@@ -28791,7 +28811,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="691" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" s="2">
         <v>45911</v>
       </c>
@@ -28832,7 +28852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="692" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" s="2">
         <v>45911</v>
       </c>
@@ -28873,7 +28893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="693" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" s="2">
         <v>45911</v>
       </c>
@@ -28914,7 +28934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="694" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="2">
         <v>45911</v>
       </c>
@@ -28955,7 +28975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="695" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" s="2">
         <v>45911</v>
       </c>
@@ -28996,7 +29016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="696" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" s="2">
         <v>45911</v>
       </c>
@@ -29037,7 +29057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="697" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" s="2">
         <v>45911</v>
       </c>
@@ -29078,7 +29098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="698" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" s="2">
         <v>45911</v>
       </c>
@@ -29119,7 +29139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="699" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" s="2">
         <v>45911</v>
       </c>
@@ -29160,7 +29180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="700" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" s="2">
         <v>45911</v>
       </c>
@@ -29201,7 +29221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="701" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" s="2">
         <v>45911</v>
       </c>
@@ -29242,7 +29262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="702" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" s="2">
         <v>45911</v>
       </c>
@@ -29283,7 +29303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="703" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" s="2">
         <v>45911</v>
       </c>
@@ -29324,7 +29344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" s="2">
         <v>45911</v>
       </c>
@@ -29365,7 +29385,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" s="2">
         <v>45911</v>
       </c>
@@ -29406,7 +29426,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" s="2">
         <v>45911</v>
       </c>
@@ -29447,7 +29467,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" s="2">
         <v>45911</v>
       </c>
@@ -29488,7 +29508,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" s="2">
         <v>45911</v>
       </c>
@@ -29529,7 +29549,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" s="2">
         <v>45911</v>
       </c>
@@ -29570,7 +29590,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" s="2">
         <v>45911</v>
       </c>
@@ -29611,7 +29631,7 @@
         <v>9999885</v>
       </c>
     </row>
-    <row r="711" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" s="2">
         <v>45912</v>
       </c>
@@ -29652,7 +29672,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="712" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" s="2">
         <v>45912</v>
       </c>
@@ -29693,7 +29713,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="713" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" s="2">
         <v>45912</v>
       </c>
@@ -29734,7 +29754,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="714" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" s="2">
         <v>45912</v>
       </c>
@@ -29775,7 +29795,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="715" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" s="2">
         <v>45912</v>
       </c>
@@ -29816,7 +29836,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="716" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" s="2">
         <v>45912</v>
       </c>
@@ -29857,7 +29877,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="717" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" s="2">
         <v>45912</v>
       </c>
@@ -29898,7 +29918,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="718" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" s="2">
         <v>45912</v>
       </c>
@@ -29939,7 +29959,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="719" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" s="2">
         <v>45912</v>
       </c>
@@ -29980,7 +30000,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="720" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" s="2">
         <v>45912</v>
       </c>
@@ -30021,7 +30041,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="721" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" s="2">
         <v>45912</v>
       </c>
@@ -30062,7 +30082,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="722" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" s="2">
         <v>45912</v>
       </c>
@@ -30103,7 +30123,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="723" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" s="2">
         <v>45912</v>
       </c>
@@ -30144,7 +30164,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="724" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" s="2">
         <v>45912</v>
       </c>
@@ -30185,7 +30205,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="725" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" s="2">
         <v>45912</v>
       </c>
@@ -30226,7 +30246,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="726" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" s="2">
         <v>45912</v>
       </c>
@@ -30267,7 +30287,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="727" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" s="2">
         <v>45912</v>
       </c>
@@ -30308,7 +30328,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="728" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" s="2">
         <v>45912</v>
       </c>
@@ -30349,7 +30369,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="729" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" s="2">
         <v>45912</v>
       </c>
@@ -30390,7 +30410,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="730" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" s="2">
         <v>45912</v>
       </c>
@@ -30431,7 +30451,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="731" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" s="2">
         <v>45912</v>
       </c>
@@ -30472,7 +30492,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="732" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" s="2">
         <v>45912</v>
       </c>
@@ -30513,7 +30533,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="733" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" s="2">
         <v>45912</v>
       </c>
@@ -30554,7 +30574,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="734" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" s="2">
         <v>45912</v>
       </c>
@@ -30595,7 +30615,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="735" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" s="2">
         <v>45912</v>
       </c>
@@ -30636,7 +30656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="736" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" s="2">
         <v>45912</v>
       </c>
@@ -30677,7 +30697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="737" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" s="2">
         <v>45912</v>
       </c>
@@ -30718,7 +30738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="738" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" s="2">
         <v>45912</v>
       </c>
@@ -30759,7 +30779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="739" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" s="2">
         <v>45912</v>
       </c>
@@ -30800,7 +30820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="740" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" s="2">
         <v>45912</v>
       </c>
@@ -30841,7 +30861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="741" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" s="2">
         <v>45912</v>
       </c>
@@ -30882,7 +30902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="742" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" s="2">
         <v>45912</v>
       </c>
@@ -30923,7 +30943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="743" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" s="2">
         <v>45912</v>
       </c>
@@ -30964,7 +30984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="744" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" s="2">
         <v>45912</v>
       </c>
@@ -31005,7 +31025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="745" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" s="2">
         <v>45912</v>
       </c>
@@ -31046,7 +31066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="746" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" s="2">
         <v>45912</v>
       </c>
@@ -31087,7 +31107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="747" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" s="2">
         <v>45912</v>
       </c>
@@ -31128,7 +31148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="748" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" s="2">
         <v>45912</v>
       </c>
@@ -31169,7 +31189,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="749" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" s="2">
         <v>45912</v>
       </c>
@@ -31210,7 +31230,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="750" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" s="2">
         <v>45912</v>
       </c>
@@ -31251,7 +31271,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="751" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" s="2">
         <v>45912</v>
       </c>
@@ -31292,7 +31312,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="752" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" s="2">
         <v>45912</v>
       </c>
@@ -31333,7 +31353,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="753" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" s="2">
         <v>45912</v>
       </c>
@@ -31374,7 +31394,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="754" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" s="2">
         <v>45912</v>
       </c>
@@ -31415,7 +31435,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="755" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" s="2">
         <v>45912</v>
       </c>
@@ -31456,7 +31476,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="756" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" s="2">
         <v>45912</v>
       </c>
@@ -31497,7 +31517,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="757" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" s="2">
         <v>45912</v>
       </c>
@@ -31538,7 +31558,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="758" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" s="2">
         <v>45912</v>
       </c>
@@ -31579,7 +31599,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="759" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" s="2">
         <v>45912</v>
       </c>
@@ -31620,7 +31640,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="760" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" s="2">
         <v>45912</v>
       </c>
@@ -31661,7 +31681,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="761" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" s="2">
         <v>45912</v>
       </c>
@@ -31702,7 +31722,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="762" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" s="2">
         <v>45912</v>
       </c>
@@ -31743,7 +31763,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="763" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" s="2">
         <v>45912</v>
       </c>
@@ -31784,7 +31804,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="764" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" s="2">
         <v>45912</v>
       </c>
@@ -31825,7 +31845,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="765" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" s="2">
         <v>45912</v>
       </c>
@@ -31866,7 +31886,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="766" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" s="2">
         <v>45912</v>
       </c>
@@ -31907,7 +31927,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="767" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" s="2">
         <v>45912</v>
       </c>
@@ -31948,7 +31968,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="768" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" s="2">
         <v>45912</v>
       </c>
@@ -31989,7 +32009,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="769" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" s="2">
         <v>45912</v>
       </c>
@@ -32030,7 +32050,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="770" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" s="2">
         <v>45912</v>
       </c>
@@ -32071,7 +32091,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="771" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" s="2">
         <v>45912</v>
       </c>
@@ -32112,7 +32132,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="772" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" s="2">
         <v>45912</v>
       </c>
@@ -32153,7 +32173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="773" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" s="2">
         <v>45912</v>
       </c>
@@ -32194,7 +32214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="774" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" s="2">
         <v>45912</v>
       </c>
@@ -32235,7 +32255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="775" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" s="2">
         <v>45912</v>
       </c>
@@ -32276,7 +32296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="776" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" s="2">
         <v>45912</v>
       </c>
@@ -32317,7 +32337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="777" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" s="2">
         <v>45912</v>
       </c>
@@ -32358,7 +32378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="778" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" s="2">
         <v>45912</v>
       </c>
@@ -32399,7 +32419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="779" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" s="2">
         <v>45912</v>
       </c>
@@ -32440,7 +32460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="780" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" s="2">
         <v>45912</v>
       </c>
@@ -32481,7 +32501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="781" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" s="2">
         <v>45912</v>
       </c>
@@ -32522,7 +32542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="782" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" s="2">
         <v>45912</v>
       </c>
@@ -32563,7 +32583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="783" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" s="2">
         <v>45912</v>
       </c>
@@ -32604,7 +32624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="784" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" s="2">
         <v>45912</v>
       </c>
@@ -32645,7 +32665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="785" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" s="2">
         <v>45912</v>
       </c>
@@ -32686,7 +32706,7 @@
         <v>9984710</v>
       </c>
     </row>
-    <row r="786" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" s="2">
         <v>45912</v>
       </c>
@@ -32727,7 +32747,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="787" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" s="2">
         <v>45912</v>
       </c>
@@ -32768,7 +32788,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="788" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" s="2">
         <v>45912</v>
       </c>
@@ -32809,7 +32829,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="789" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" s="2">
         <v>45912</v>
       </c>
@@ -32850,7 +32870,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="790" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" s="2">
         <v>45912</v>
       </c>
@@ -32891,7 +32911,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="791" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" s="2">
         <v>45912</v>
       </c>
@@ -32932,7 +32952,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="792" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" s="2">
         <v>45912</v>
       </c>
@@ -32973,7 +32993,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="793" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" s="2">
         <v>45912</v>
       </c>
@@ -33014,7 +33034,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="794" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" s="2">
         <v>45912</v>
       </c>
@@ -33055,7 +33075,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="795" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" s="2">
         <v>45912</v>
       </c>
@@ -33096,7 +33116,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="796" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" s="2">
         <v>45912</v>
       </c>
@@ -33137,7 +33157,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="797" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" s="2">
         <v>45912</v>
       </c>
@@ -33178,7 +33198,7 @@
         <v>9999945</v>
       </c>
     </row>
-    <row r="798" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" s="2">
         <v>45912</v>
       </c>
@@ -33216,7 +33236,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="799" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" s="2">
         <v>45912</v>
       </c>
@@ -33254,7 +33274,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="800" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" s="2">
         <v>45912</v>
       </c>
@@ -33292,7 +33312,7 @@
         <v>4648</v>
       </c>
     </row>
-    <row r="801" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" s="2">
         <v>45912</v>
       </c>
@@ -33332,9 +33352,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N801" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
+    <filterColumn colId="0">
       <filters>
-        <filter val="0386"/>
+        <dateGroupItem year="2025" month="9" day="1" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="C816"/>
       </filters>
     </filterColumn>
   </autoFilter>
